--- a/biology/Botanique/Mimosaceae/Mimosaceae.xlsx
+++ b/biology/Botanique/Mimosaceae/Mimosaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Mimosaceae regroupe des plantes de l'ordre des Fabales. Ce sont des arbres ou des arbustes des tropiques ou des sous-tropiques. La classification se basant actuellement sur des analyses phylogénétiques
 rend cette famille obsolète. Les genres sont les mêmes que ceux de la sous-famille des Mimosoideae, notamment le genre Acacia qui comprend le plus d'espèces.
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Mimosaceae a été créée en 1814 par le botaniste écossais Robert Brown (1773-1858).
-Cette famille existe dans la classification classique de Cronquist (1981)[1], mais n'existe plus dans la classification phylogénétique de l'APG : APG (1998), APG II (2003), APG III (2009) et APG IV (2016), qui abaissent ce groupe au rang de sous-famille : les Mimosoideae de la famille des Fabaceae.
+Cette famille existe dans la classification classique de Cronquist (1981), mais n'existe plus dans la classification phylogénétique de l'APG : APG (1998), APG II (2003), APG III (2009) et APG IV (2016), qui abaissent ce groupe au rang de sous-famille : les Mimosoideae de la famille des Fabaceae.
 </t>
         </is>
       </c>
